--- a/february.xlsx
+++ b/february.xlsx
@@ -1,28 +1,196 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\poberzhnij\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC47353C-BAF9-4FFE-86F8-6B0E1C2DD2AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="5964" yWindow="552" windowWidth="13608" windowHeight="12036" firstSheet="1" activeTab="2" xr2:uid="{CF91CFC4-D517-46A7-AB31-1449DDF2A834}"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
-    <sheet name="Лист2" sheetId="2" r:id="rId2"/>
-    <sheet name="Лист3" sheetId="3" r:id="rId3"/>
+    <sheet name="Диаграмма1" sheetId="3" state="hidden" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="36">
+  <si>
+    <t>Ваня</t>
+  </si>
+  <si>
+    <t>Паша</t>
+  </si>
+  <si>
+    <t>Вова</t>
+  </si>
+  <si>
+    <t>Катя</t>
+  </si>
+  <si>
+    <t>Лиза</t>
+  </si>
+  <si>
+    <t>python</t>
+  </si>
+  <si>
+    <t>VR</t>
+  </si>
+  <si>
+    <t>java</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Пн 18.00-18.40, Ср 15.30-17.00</t>
+  </si>
+  <si>
+    <t>Вторник: 18.30-19.15, Пятница 14.00-15.30</t>
+  </si>
+  <si>
+    <t>Понедельник 18.00-18.40, Среда 15.30-17.00</t>
+  </si>
+  <si>
+    <t>ФИО</t>
+  </si>
+  <si>
+    <t>Направление</t>
+  </si>
+  <si>
+    <t>Расписание</t>
+  </si>
+  <si>
+    <t>Боря</t>
+  </si>
+  <si>
+    <t>Понедельник: 20.00-20.45, Четверг 15.30-17.00</t>
+  </si>
+  <si>
+    <t>Педагог</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Краткое содеражние </t>
+  </si>
+  <si>
+    <t>Шатров А.Р.</t>
+  </si>
+  <si>
+    <t>Квашнина Т.В.</t>
+  </si>
+  <si>
+    <t>Володя</t>
+  </si>
+  <si>
+    <t>*краткое описание VR*</t>
+  </si>
+  <si>
+    <t>*краткое описание java*</t>
+  </si>
+  <si>
+    <t>*Краткое опясание python*</t>
+  </si>
+  <si>
+    <t>мобильная разработка</t>
+  </si>
+  <si>
+    <t>(фронтенд, питон, видеомонтаж)</t>
+  </si>
+  <si>
+    <t>()</t>
+  </si>
+  <si>
+    <t>scratch</t>
+  </si>
+  <si>
+    <t>3D, Vr</t>
+  </si>
+  <si>
+    <t>робототехника</t>
+  </si>
+  <si>
+    <t>системное</t>
+  </si>
+  <si>
+    <t>судостроение</t>
+  </si>
+  <si>
+    <t>системное администрирование, ещё что-то, ещё что-то</t>
+  </si>
+  <si>
+    <t>(мобильная разработка)</t>
+  </si>
+  <si>
+    <t>шахматы</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-&quot;₽&quot;* #,##0.00_-;\-&quot;₽&quot;* #,##0.00_-;_-&quot;₽&quot;* &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -43,23 +211,912 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Денежный" xfId="1" builtinId="4"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$7:$B$7</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Лиза</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>VR</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$C$1:$C$6</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Расписание</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Понедельник 18.00-18.40, Среда 15.30-17.00</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Вторник: 18.30-19.15, Пятница 14.00-15.30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Понедельник: 20.00-20.45, Четверг 15.30-17.00</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Пн 18.00-18.40, Ср 15.30-17.00</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Понедельник: 20.00-20.45, Четверг 15.30-17.00</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7D1C-47BD-9F1C-C95C4DE0A559}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="300171904"/>
+        <c:axId val="300236976"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="300171904"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="300236976"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="300236976"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="300171904"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{EB76BC99-7034-4D57-BCCB-3C2F6916F214}">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="85" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="9287435" cy="6069106"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Диаграмма 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3FB846F9-99FB-B2D1-D047-C816E215CD86}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -73,44 +1130,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1F497D"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="EEECE1"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4F81BD"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="C0504D"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="9BBB59"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8064A2"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4BACC6"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="F79646"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000FF"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="800080"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -138,14 +1195,31 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -173,6 +1247,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -184,201 +1275,408 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="35000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="80000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
+                <a:alpha val="63000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
         </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
-        </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
         </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="40000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{644056C9-7F6F-4F1C-8B29-EFEC670E2C57}">
+  <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9.88671875" customWidth="1"/>
+    <col min="2" max="2" width="12.88671875" customWidth="1"/>
+    <col min="3" max="3" width="42.77734375" customWidth="1"/>
+    <col min="4" max="4" width="16.109375" style="3" customWidth="1"/>
+    <col min="5" max="5" width="11" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="7"/>
+      <c r="E2" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="7"/>
+      <c r="E3" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="1"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="4"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="1"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="6"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="1"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="1"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D65684E7-1B8C-4225-8649-E075CF0C5058}">
+  <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19:I36"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="22.6640625" customWidth="1"/>
+    <col min="2" max="2" width="16.109375" customWidth="1"/>
+    <col min="3" max="3" width="25.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="D5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C23" s="8"/>
+    </row>
+    <row r="24" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C24" s="8"/>
+    </row>
+    <row r="25" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C25" s="8"/>
+    </row>
+    <row r="26" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C26" s="8"/>
+    </row>
+    <row r="27" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C27" s="8"/>
+    </row>
+    <row r="28" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C28" s="8"/>
+    </row>
+    <row r="29" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C29" s="8"/>
+    </row>
+    <row r="30" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C30" s="8"/>
+    </row>
+    <row r="31" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C31" s="8"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>